--- a/natmiOut/OldD0/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33006383876256</v>
+        <v>2.220712</v>
       </c>
       <c r="H2">
-        <v>1.33006383876256</v>
+        <v>6.662135999999999</v>
       </c>
       <c r="I2">
-        <v>0.002500102154292384</v>
+        <v>0.004164179109543329</v>
       </c>
       <c r="J2">
-        <v>0.002500102154292384</v>
+        <v>0.00416417910954333</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>124.333768788436</v>
+        <v>1.086735333333333</v>
       </c>
       <c r="N2">
-        <v>124.333768788436</v>
+        <v>3.260206</v>
       </c>
       <c r="O2">
-        <v>0.8687556296498187</v>
+        <v>0.007520028150622985</v>
       </c>
       <c r="P2">
-        <v>0.8687556296498187</v>
+        <v>0.007520028150622985</v>
       </c>
       <c r="Q2">
-        <v>165.3718498025638</v>
+        <v>2.413326195557333</v>
       </c>
       <c r="R2">
-        <v>165.3718498025638</v>
+        <v>21.719935760016</v>
       </c>
       <c r="S2">
-        <v>0.002171977821241148</v>
+        <v>3.131474412800199E-05</v>
       </c>
       <c r="T2">
-        <v>0.002171977821241148</v>
+        <v>3.131474412800199E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33006383876256</v>
+        <v>2.220712</v>
       </c>
       <c r="H3">
-        <v>1.33006383876256</v>
+        <v>6.662135999999999</v>
       </c>
       <c r="I3">
-        <v>0.002500102154292384</v>
+        <v>0.004164179109543329</v>
       </c>
       <c r="J3">
-        <v>0.002500102154292384</v>
+        <v>0.00416417910954333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.7833110266933</v>
+        <v>124.5345636666667</v>
       </c>
       <c r="N3">
-        <v>18.7833110266933</v>
+        <v>373.603691</v>
       </c>
       <c r="O3">
-        <v>0.1312443703501814</v>
+        <v>0.8617585126512408</v>
       </c>
       <c r="P3">
-        <v>0.1312443703501814</v>
+        <v>0.8617585126512408</v>
       </c>
       <c r="Q3">
-        <v>24.98300276883482</v>
+        <v>276.5553999493306</v>
       </c>
       <c r="R3">
-        <v>24.98300276883482</v>
+        <v>2488.998599543976</v>
       </c>
       <c r="S3">
-        <v>0.0003281243330512361</v>
+        <v>0.003588516795853427</v>
       </c>
       <c r="T3">
-        <v>0.0003281243330512361</v>
+        <v>0.003588516795853428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>527.4731245622251</v>
+        <v>2.220712</v>
       </c>
       <c r="H4">
-        <v>527.4731245622251</v>
+        <v>6.662135999999999</v>
       </c>
       <c r="I4">
-        <v>0.9914837593632013</v>
+        <v>0.004164179109543329</v>
       </c>
       <c r="J4">
-        <v>0.9914837593632013</v>
+        <v>0.00416417910954333</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.333768788436</v>
+        <v>18.89083733333333</v>
       </c>
       <c r="N4">
-        <v>124.333768788436</v>
+        <v>56.672512</v>
       </c>
       <c r="O4">
-        <v>0.8687556296498187</v>
+        <v>0.1307214591981362</v>
       </c>
       <c r="P4">
-        <v>0.8687556296498187</v>
+        <v>0.1307214591981362</v>
       </c>
       <c r="Q4">
-        <v>65582.7215114336</v>
+        <v>41.95110915618133</v>
       </c>
       <c r="R4">
-        <v>65582.7215114336</v>
+        <v>377.559982405632</v>
       </c>
       <c r="S4">
-        <v>0.8613570976531473</v>
+        <v>0.0005443475695618995</v>
       </c>
       <c r="T4">
-        <v>0.8613570976531473</v>
+        <v>0.0005443475695618995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>527.4731245622251</v>
+        <v>527.8012189999999</v>
       </c>
       <c r="H5">
-        <v>527.4731245622251</v>
+        <v>1583.403657</v>
       </c>
       <c r="I5">
-        <v>0.9914837593632013</v>
+        <v>0.9897090708526379</v>
       </c>
       <c r="J5">
-        <v>0.9914837593632013</v>
+        <v>0.9897090708526382</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>18.7833110266933</v>
+        <v>1.086735333333333</v>
       </c>
       <c r="N5">
-        <v>18.7833110266933</v>
+        <v>3.260206</v>
       </c>
       <c r="O5">
-        <v>0.1312443703501814</v>
+        <v>0.007520028150622985</v>
       </c>
       <c r="P5">
-        <v>0.1312443703501814</v>
+        <v>0.007520028150622985</v>
       </c>
       <c r="Q5">
-        <v>9907.691756874012</v>
+        <v>573.5802336637047</v>
       </c>
       <c r="R5">
-        <v>9907.691756874012</v>
+        <v>5162.222102973342</v>
       </c>
       <c r="S5">
-        <v>0.1301266617100541</v>
+        <v>0.007442640073738756</v>
       </c>
       <c r="T5">
-        <v>0.1301266617100541</v>
+        <v>0.007442640073738758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.20060851546854</v>
+        <v>527.8012189999999</v>
       </c>
       <c r="H6">
-        <v>3.20060851546854</v>
+        <v>1583.403657</v>
       </c>
       <c r="I6">
-        <v>0.006016138482506266</v>
+        <v>0.9897090708526379</v>
       </c>
       <c r="J6">
-        <v>0.006016138482506266</v>
+        <v>0.9897090708526382</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>124.333768788436</v>
+        <v>124.5345636666667</v>
       </c>
       <c r="N6">
-        <v>124.333768788436</v>
+        <v>373.603691</v>
       </c>
       <c r="O6">
-        <v>0.8687556296498187</v>
+        <v>0.8617585126512408</v>
       </c>
       <c r="P6">
-        <v>0.8687556296498187</v>
+        <v>0.8617585126512408</v>
       </c>
       <c r="Q6">
-        <v>397.9437191445649</v>
+        <v>65729.49451089978</v>
       </c>
       <c r="R6">
-        <v>397.9437191445649</v>
+        <v>591565.450598098</v>
       </c>
       <c r="S6">
-        <v>0.005226554175430236</v>
+        <v>0.8528902168554108</v>
       </c>
       <c r="T6">
-        <v>0.005226554175430236</v>
+        <v>0.852890216855411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.20060851546854</v>
+        <v>527.8012189999999</v>
       </c>
       <c r="H7">
-        <v>3.20060851546854</v>
+        <v>1583.403657</v>
       </c>
       <c r="I7">
-        <v>0.006016138482506266</v>
+        <v>0.9897090708526379</v>
       </c>
       <c r="J7">
-        <v>0.006016138482506266</v>
+        <v>0.9897090708526382</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.7833110266933</v>
+        <v>18.89083733333333</v>
       </c>
       <c r="N7">
-        <v>18.7833110266933</v>
+        <v>56.672512</v>
       </c>
       <c r="O7">
-        <v>0.1312443703501814</v>
+        <v>0.1307214591981362</v>
       </c>
       <c r="P7">
-        <v>0.1312443703501814</v>
+        <v>0.1307214591981362</v>
       </c>
       <c r="Q7">
-        <v>60.11802522072871</v>
+        <v>9970.606972464042</v>
       </c>
       <c r="R7">
-        <v>60.11802522072871</v>
+        <v>89735.46275217638</v>
       </c>
       <c r="S7">
-        <v>0.0007895843070760307</v>
+        <v>0.1293762139234884</v>
       </c>
       <c r="T7">
-        <v>0.0007895843070760307</v>
+        <v>0.1293762139234884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.26733</v>
+      </c>
+      <c r="H8">
+        <v>9.80199</v>
+      </c>
+      <c r="I8">
+        <v>0.006126750037818593</v>
+      </c>
+      <c r="J8">
+        <v>0.006126750037818595</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.086735333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.260206</v>
+      </c>
+      <c r="O8">
+        <v>0.007520028150622985</v>
+      </c>
+      <c r="P8">
+        <v>0.007520028150622985</v>
+      </c>
+      <c r="Q8">
+        <v>3.55072295666</v>
+      </c>
+      <c r="R8">
+        <v>31.95650660994</v>
+      </c>
+      <c r="S8">
+        <v>4.607333275622626E-05</v>
+      </c>
+      <c r="T8">
+        <v>4.607333275622627E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.26733</v>
+      </c>
+      <c r="H9">
+        <v>9.80199</v>
+      </c>
+      <c r="I9">
+        <v>0.006126750037818593</v>
+      </c>
+      <c r="J9">
+        <v>0.006126750037818595</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>124.5345636666667</v>
+      </c>
+      <c r="N9">
+        <v>373.603691</v>
+      </c>
+      <c r="O9">
+        <v>0.8617585126512408</v>
+      </c>
+      <c r="P9">
+        <v>0.8617585126512408</v>
+      </c>
+      <c r="Q9">
+        <v>406.89551590501</v>
+      </c>
+      <c r="R9">
+        <v>3662.05964314509</v>
+      </c>
+      <c r="S9">
+        <v>0.005279778999976484</v>
+      </c>
+      <c r="T9">
+        <v>0.005279778999976486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.26733</v>
+      </c>
+      <c r="H10">
+        <v>9.80199</v>
+      </c>
+      <c r="I10">
+        <v>0.006126750037818593</v>
+      </c>
+      <c r="J10">
+        <v>0.006126750037818595</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.89083733333333</v>
+      </c>
+      <c r="N10">
+        <v>56.672512</v>
+      </c>
+      <c r="O10">
+        <v>0.1307214591981362</v>
+      </c>
+      <c r="P10">
+        <v>0.1307214591981362</v>
+      </c>
+      <c r="Q10">
+        <v>61.72259954432</v>
+      </c>
+      <c r="R10">
+        <v>555.5033958988799</v>
+      </c>
+      <c r="S10">
+        <v>0.0008008977050858829</v>
+      </c>
+      <c r="T10">
+        <v>0.000800897705085883</v>
       </c>
     </row>
   </sheetData>
